--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2588.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2588.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8028758505877288</v>
+        <v>1.238853812217712</v>
       </c>
       <c r="B1">
-        <v>1.311757514018057</v>
+        <v>2.996760845184326</v>
       </c>
       <c r="C1">
-        <v>3.428558239399545</v>
+        <v>6.001397132873535</v>
       </c>
       <c r="D1">
-        <v>2.273457093704463</v>
+        <v>1.950359582901001</v>
       </c>
       <c r="E1">
-        <v>0.992593801272125</v>
+        <v>0.7457773089408875</v>
       </c>
     </row>
   </sheetData>
